--- a/spreadsheetready.xlsx
+++ b/spreadsheetready.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="3480" windowWidth="24880" windowHeight="15340" tabRatio="500"/>
+    <workbookView xWindow="8860" yWindow="4640" windowWidth="24880" windowHeight="15340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Client SUNet ID:</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Open Backup Software, if not working advise; if not installed, setup Mozy.</t>
   </si>
   <si>
-    <t>(Win) Have user set up BitLocker pin &amp; backup to flash drive</t>
-  </si>
-  <si>
     <t>Reboot computer and confirm user can log in using encryption.</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>BACKUP PROCESS</t>
   </si>
   <si>
-    <t>Enable TPM in Bios. Ensure proper TPM driver installed in Device Manger</t>
-  </si>
-  <si>
     <t>Name:</t>
   </si>
   <si>
@@ -123,12 +117,6 @@
     <t>ENCRYPTION PROCESS</t>
   </si>
   <si>
-    <t>Ready Windows Checklist</t>
-  </si>
-  <si>
-    <t>Change computers hostname; (Dept)-(Serial Number)</t>
-  </si>
-  <si>
     <t>Loaner:</t>
   </si>
   <si>
@@ -136,13 +124,44 @@
   </si>
   <si>
     <t>Ac Adapter:</t>
+  </si>
+  <si>
+    <t>Ready Mac Checklist</t>
+  </si>
+  <si>
+    <t>Verfify Boot Camp partition doesn't exist. If so, migrate BootCamp to VM and remove BootCamp partition.</t>
+  </si>
+  <si>
+    <t>Perform Permissions Repair on Drive</t>
+  </si>
+  <si>
+    <r>
+      <t>Change computername (Dept)-(Serial Number);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Unless Earth Sciences</t>
+    </r>
+  </si>
+  <si>
+    <t>Add User to FileVault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove local IT account from list of FileVault users (From Terminal, "sudo fdesetup remove -user shortname")   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,6 +251,14 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -260,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -270,21 +297,178 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -342,33 +526,58 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -397,6 +606,7 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -425,6 +635,7 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -762,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -779,292 +990,372 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="17" thickBot="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" ht="17" thickBot="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" thickBot="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" ht="17" thickBot="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="17" thickBot="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="15"/>
-      <c r="B3" s="2" t="s">
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" ht="29" customHeight="1" thickTop="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" ht="16">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" ht="16">
+      <c r="A9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="1:5" ht="16">
+      <c r="A11" s="31"/>
+      <c r="B11" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:5" ht="16">
+      <c r="A12" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" ht="16">
+      <c r="A13" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:5" ht="16">
+      <c r="A15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" ht="16">
+      <c r="A16" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="1:5" ht="16">
+      <c r="A17" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="15"/>
-      <c r="B4" s="2" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+    </row>
+    <row r="18" spans="1:5" ht="16">
+      <c r="A18" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:5" ht="16">
+      <c r="A19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" ht="16">
+      <c r="A20" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="1:5" ht="16">
+      <c r="A21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="1:5" ht="16">
+      <c r="A22" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="15"/>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="29" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.25">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.25">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.25">
-      <c r="A13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.25">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.25">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.25">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.25">
-      <c r="A17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.25">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.25">
-      <c r="A20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.25">
-      <c r="A21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.25">
-      <c r="A22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="23" spans="1:5" ht="16">
+      <c r="A23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.25">
-      <c r="A23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="1:5" ht="16">
+      <c r="A24" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="1:5" ht="16">
+      <c r="A25" s="31"/>
+      <c r="B25" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.25">
-      <c r="A25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:5" ht="16">
+      <c r="A26" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.25">
-      <c r="A26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:5" ht="16">
+      <c r="A27" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.25">
-      <c r="A27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:5" ht="16">
+      <c r="A28" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.25">
-      <c r="A28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" ht="16">
+      <c r="A29" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:5" ht="16">
+      <c r="A30" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.25">
-      <c r="A29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:5" ht="16">
+      <c r="A31" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:5" ht="16">
+      <c r="A32" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.25">
-      <c r="A30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:5" ht="16">
+      <c r="A33" s="31"/>
+      <c r="B33" s="26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="17.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="8" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="38"/>
+    </row>
+    <row r="34" spans="1:5" ht="16">
+      <c r="A34" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" ht="17.25">
-      <c r="A32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
